--- a/Pricing Table.xlsx
+++ b/Pricing Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\GitHub\Cooking-Arcade-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DFE439-291F-47FD-8CC4-A57CC40C3EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E1889-6422-4F96-9F7B-B55286559BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Cost</t>
   </si>
@@ -82,6 +82,60 @@
   </si>
   <si>
     <t>Bacon</t>
+  </si>
+  <si>
+    <t>Dough</t>
+  </si>
+  <si>
+    <t>Pepperoni</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Mozzarella</t>
+  </si>
+  <si>
+    <t>Sausage</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Lettuce-s</t>
+  </si>
+  <si>
+    <t>Tomato-s</t>
+  </si>
+  <si>
+    <t>Onion-s</t>
+  </si>
+  <si>
+    <t>Bacon-s</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Crouton</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Olive</t>
   </si>
 </sst>
 </file>
@@ -105,12 +159,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -148,6 +220,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -673,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D45544-66F0-4DE5-909D-1CC5802BEB04}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,15 +760,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -701,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -709,7 +784,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -717,7 +792,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -725,7 +800,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -733,7 +808,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -741,11 +816,106 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Table.xlsx
+++ b/Pricing Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\GitHub\Cooking-Arcade-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E1889-6422-4F96-9F7B-B55286559BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF2A70-F056-4878-9376-D61F0BA08144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Cost</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Olive</t>
+  </si>
+  <si>
+    <t>Classic Pepperoni</t>
+  </si>
+  <si>
+    <t>Meat Lovers</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Cheese Only</t>
   </si>
 </sst>
 </file>
@@ -503,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +756,298 @@
         <v>6</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f>-VLOOKUP(A32,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <f>-VLOOKUP(A33,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <f>-VLOOKUP(A34,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2">
+        <f>-VLOOKUP(A35,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B31:B35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <f>-VLOOKUP(A39,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <f>-VLOOKUP(A40,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <f>-VLOOKUP(A41,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <f>-VLOOKUP(A42,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <f>-VLOOKUP(A43,Sheet2!A:B,2,0)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2">
+        <f>-VLOOKUP(A44,Sheet2!A:B,2,0)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B38:B44)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <f>-VLOOKUP(A48,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <f>-VLOOKUP(A49,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <f>-VLOOKUP(A50,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <f>-VLOOKUP(A51,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2">
+        <f>-VLOOKUP(A52,Sheet2!A:B,2,0)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <f>SUM(B47:B52)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <f>-VLOOKUP(A56,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57">
+        <f>-VLOOKUP(A57,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <f>-VLOOKUP(A58,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <f>-VLOOKUP(A59,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2">
+        <f>-VLOOKUP(A60,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <f>SUM(B55:B60)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <f>-VLOOKUP(A64,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <f>-VLOOKUP(A65,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="2">
+        <f>-VLOOKUP(A66,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B63:B66)</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -748,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D45544-66F0-4DE5-909D-1CC5802BEB04}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,94 +1134,116 @@
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Pricing Table.xlsx
+++ b/Pricing Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\GitHub\Cooking-Arcade-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Game Dev\Cooking-Arcade-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF2A70-F056-4878-9376-D61F0BA08144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCBB0E5-A87F-46C1-A2FE-86CB23A25EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="645" windowWidth="19605" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>

--- a/Pricing Table.xlsx
+++ b/Pricing Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Game Dev\Cooking-Arcade-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\GitHub\Cooking-Arcade-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCBB0E5-A87F-46C1-A2FE-86CB23A25EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D7065-88B3-4D57-8D12-957D790955D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="645" windowWidth="19605" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Cost</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Mozzarella</t>
-  </si>
-  <si>
-    <t>Sausage</t>
   </si>
   <si>
     <t>Sauce</t>
@@ -520,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +755,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -784,7 +781,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <f>-VLOOKUP(A34,Sheet2!A:B,2,0)</f>
@@ -811,7 +808,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -837,7 +834,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <f>-VLOOKUP(A41,Sheet2!A:B,2,0)</f>
@@ -855,7 +852,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <f>-VLOOKUP(A43,Sheet2!A:B,2,0)</f>
@@ -882,7 +879,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -908,7 +905,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <f>-VLOOKUP(A50,Sheet2!A:B,2,0)</f>
@@ -944,7 +941,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55">
         <v>15</v>
@@ -970,7 +967,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <f>-VLOOKUP(A58,Sheet2!A:B,2,0)</f>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1032,7 +1029,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="2">
         <f>-VLOOKUP(A66,Sheet2!A:B,2,0)</f>
@@ -1057,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D45544-66F0-4DE5-909D-1CC5802BEB04}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1204,47 +1201,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Table.xlsx
+++ b/Pricing Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\GitHub\Cooking-Arcade-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D7065-88B3-4D57-8D12-957D790955D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D3C719-7F06-4A0C-B2B0-9690DFC668A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>Cost</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Cheese Only</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Garden Salad</t>
+  </si>
+  <si>
+    <t>Greek Salad</t>
+  </si>
+  <si>
+    <t>Chicken Salad</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1057,227 @@
         <v>6</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <f>-VLOOKUP(A70,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <f>-VLOOKUP(A71,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2">
+        <f>-VLOOKUP(A72,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <f>SUM(B69:B72)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <f>-VLOOKUP(A76,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77">
+        <f>-VLOOKUP(A77,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <f>-VLOOKUP(A78,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2">
+        <f>-VLOOKUP(A79,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <f>SUM(B75:B79)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <f>-VLOOKUP(A83,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84">
+        <f>-VLOOKUP(A84,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85">
+        <f>-VLOOKUP(A85,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="2">
+        <f>-VLOOKUP(A86,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <f>SUM(B82:B86)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <f>-VLOOKUP(A90,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91">
+        <f>-VLOOKUP(A91,Sheet2!A:B,2,0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <f>-VLOOKUP(A92,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <f>-VLOOKUP(A93,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <f>-VLOOKUP(A94,Sheet2!A:B,2,0)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="2">
+        <f>-VLOOKUP(A95,Sheet2!A:B,2,0)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <f>SUM(B89:B95)</f>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D45544-66F0-4DE5-909D-1CC5802BEB04}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,45 +1436,72 @@
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
